--- a/Riesgo/DataTarea_Exogenas_Riesgo8.xlsx
+++ b/Riesgo/DataTarea_Exogenas_Riesgo8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob-my.sharepoint.com/personal/flavio_abanto_bcrp_gob_pe/Documents/DMM/CUECOPolMon-main/CUECOPolMon-main/Riesgo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob-my.sharepoint.com/personal/flavio_abanto_bcrp_gob_pe/Documents/DMM/CUECOPolMon-main/CUECOPolMon-main (1)/CUECOPolMon-main/Riesgo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_0231D75C2C276BC4C96F670335E2EB0A5EB77CA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D80C2155-764F-4E5F-9691-65F9EB0F7A14}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_0231D75C2C276BC4C96F670335E2EB0A5EB77CA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB273738-84F8-49E2-B8C7-3AB9C302F27A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,10 +636,10 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
-        <v>0.37368092970796096</v>
+        <v>0.87368092970796096</v>
       </c>
       <c r="G3" s="4">
-        <v>2.4430951174366471</v>
+        <v>2.6930951174366471</v>
       </c>
       <c r="H3" s="4">
         <v>-1.324276733848583</v>
@@ -657,10 +657,10 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <v>0.44932078899883388</v>
+        <v>0.94932078899883388</v>
       </c>
       <c r="G4" s="4">
-        <v>2.375390183492327</v>
+        <v>2.625390183492327</v>
       </c>
       <c r="H4" s="4">
         <v>-0.90011217612916594</v>
@@ -681,7 +681,7 @@
         <v>0.97966750054633212</v>
       </c>
       <c r="G5" s="4">
-        <v>2.2680305634547002</v>
+        <v>2.3180305634547</v>
       </c>
       <c r="H5" s="4">
         <v>-0.52235981321536906</v>
@@ -702,7 +702,7 @@
         <v>0.99184260121918844</v>
       </c>
       <c r="G6" s="4">
-        <v>2.2194354933588212</v>
+        <v>2.269435493358821</v>
       </c>
       <c r="H6" s="4">
         <v>-0.21399057723271375</v>
@@ -720,10 +720,10 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
-        <v>0.99672725160913844</v>
+        <v>1.4967272516091383</v>
       </c>
       <c r="G7" s="4">
-        <v>2.1282657499735929</v>
+        <v>2.2282657499735929</v>
       </c>
       <c r="H7" s="4">
         <v>2.4880313700197609E-2</v>
@@ -741,10 +741,10 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
-        <v>0.99868697334558632</v>
+        <v>1.4986869733455863</v>
       </c>
       <c r="G8" s="4">
-        <v>2.0933867433776281</v>
+        <v>2.1933867433776282</v>
       </c>
       <c r="H8" s="4">
         <v>0.20333069199637033</v>
@@ -762,7 +762,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
-        <v>0.49947321370624925</v>
+        <v>1.4994732137062492</v>
       </c>
       <c r="G9" s="4">
         <v>2.0138372489895269</v>
@@ -783,7 +783,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <v>0.49978865333894718</v>
+        <v>1.4997886533389473</v>
       </c>
       <c r="G10" s="4">
         <v>1.988802917343927</v>
